--- a/biology/Botanique/Parc_municipal_de_La_Bouvaque/Parc_municipal_de_La_Bouvaque.xlsx
+++ b/biology/Botanique/Parc_municipal_de_La_Bouvaque/Parc_municipal_de_La_Bouvaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc municipal de La Bouvaque est situé à Abbeville dans le département de la Somme.
@@ -512,9 +524,11 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom  de La Bouvaque viendrait de ce que les paysans venaient en ce lieu marécageux faire paître leurs bœufs (du latin bos) et leurs vaches (du latin vacca, vaque en picard)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom  de La Bouvaque viendrait de ce que les paysans venaient en ce lieu marécageux faire paître leurs bœufs (du latin bos) et leurs vaches (du latin vacca, vaque en picard).
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce parc d'une soixantaine d'hectares est situé dans les faubourgs de La Bouvaque et de Thuison au nord de la ville, dans la vallée du Scardon.
-Il est organisé autour des étangs de La Bouvaque et des étangs des Prés Collart (anciens bassins de décantation de la sucrerie Béghin-Say). Un sentier aménagé (environ 3 km) sur tout le périmètre permet d'observer la faune et la flore caractéristiques des milieux humides[1].
-Depuis 2018, le parc accueille la création "Coup d’œil entre deux eaux", série de plateformes d'observation posées sur pilotis, proposée par l’association Art &amp; jardins – Hauts-de-France (création de l'Atelier L. J. N., collectif formé par les paysagistes Stanislas Bah Chuzeville, Richard Mariotte et Arnaud Mermet-Gerlat)[2].
-Des sources bleues sont visibles dans le parc[1]. Il s'agit d'une eau particulièrement pure, résurgence des eaux de pluie filtrées par le plateau et la vallée. L’eau contenue sur un fond crayeux et blanc opère une sélection chromatique de la lumière solaire. Une partie du spectre lumineux est absorbée par les fonds. La lumière bleue, elle, est retenue par les couches liquides supérieures, ce qui expliquerait la couleur bleue[3]. D'autres sources bleues existent dans la Somme (Fréchencourt, Eaucourt-sur-Somme).
+Il est organisé autour des étangs de La Bouvaque et des étangs des Prés Collart (anciens bassins de décantation de la sucrerie Béghin-Say). Un sentier aménagé (environ 3 km) sur tout le périmètre permet d'observer la faune et la flore caractéristiques des milieux humides.
+Depuis 2018, le parc accueille la création "Coup d’œil entre deux eaux", série de plateformes d'observation posées sur pilotis, proposée par l’association Art &amp; jardins – Hauts-de-France (création de l'Atelier L. J. N., collectif formé par les paysagistes Stanislas Bah Chuzeville, Richard Mariotte et Arnaud Mermet-Gerlat).
+Des sources bleues sont visibles dans le parc. Il s'agit d'une eau particulièrement pure, résurgence des eaux de pluie filtrées par le plateau et la vallée. L’eau contenue sur un fond crayeux et blanc opère une sélection chromatique de la lumière solaire. Une partie du spectre lumineux est absorbée par les fonds. La lumière bleue, elle, est retenue par les couches liquides supérieures, ce qui expliquerait la couleur bleue. D'autres sources bleues existent dans la Somme (Fréchencourt, Eaucourt-sur-Somme).
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce parc est d'une grande richesse faunistique.
 De nombreux oiseaux sédentaires ou migrateurs y stationnent et nichent pour certains:
@@ -609,7 +627,9 @@
           <t>- Oiseaux aquatiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bécassine des marais,
 Grand Cormoran,
@@ -663,7 +683,9 @@
           <t>- Passereaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Rougegorge Familier,
 Gobemouche gris,
@@ -716,7 +738,9 @@
           <t>- Rapaces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Busard des roseaux,
 Faucon crécerelle,
@@ -749,7 +773,9 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La flore est elle aussi diversifiée :
 carex,
@@ -802,7 +828,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Promenade
 visite guidée (Planning des visites)
@@ -836,7 +864,13 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Liens internes
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Parc municipal de La Bouvaque, sur Wikimedia Commons
 Liste de parcs et jardins de Picardie
